--- a/src/test/resources/dataformat/dataformat.xlsx
+++ b/src/test/resources/dataformat/dataformat.xlsx
@@ -16,18 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>dateString</t>
+    <t>dateStringCn</t>
+  </si>
+  <si>
+    <t>dateStringUs</t>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
-    <t>numberString</t>
+    <t>numberStringCn</t>
+  </si>
+  <si>
+    <t>numberStringUs</t>
   </si>
   <si>
     <t>2020/1/1 1:01</t>
@@ -48,12 +54,18 @@
     <t>￥1.11</t>
   </si>
   <si>
+    <t>$1.11</t>
+  </si>
+  <si>
     <t>2020年1月1日</t>
   </si>
   <si>
     <t>￥1</t>
   </si>
   <si>
+    <t>$1</t>
+  </si>
+  <si>
     <t>2020年1月</t>
   </si>
   <si>
@@ -63,7 +75,7 @@
     <t>1月1日</t>
   </si>
   <si>
-    <t xml:space="preserve">$1.11 </t>
+    <t>$1.1111</t>
   </si>
   <si>
     <t>¥1</t>
@@ -75,6 +87,9 @@
     <t>1111.11</t>
   </si>
   <si>
+    <t>2020/1/1 1:01 上午</t>
+  </si>
+  <si>
     <t>2020/1/1 1:01 AM</t>
   </si>
   <si>
@@ -93,24 +108,45 @@
     <t>01/01/20</t>
   </si>
   <si>
+    <t>1-一月</t>
+  </si>
+  <si>
     <t>1-Jan</t>
   </si>
   <si>
+    <t>1-一月-20</t>
+  </si>
+  <si>
     <t>1-Jan-20</t>
   </si>
   <si>
+    <t>一月-20</t>
+  </si>
+  <si>
     <t>January-20</t>
   </si>
   <si>
+    <t>一-20</t>
+  </si>
+  <si>
     <t>J-20</t>
   </si>
   <si>
+    <t>一</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
+    <t>1:01 上午</t>
+  </si>
+  <si>
     <t>1:01 AM</t>
   </si>
   <si>
+    <t>1:01:01 上午</t>
+  </si>
+  <si>
     <t>1:01:01 AM</t>
   </si>
   <si>
@@ -123,13 +159,13 @@
     <t>上午1时01分</t>
   </si>
   <si>
+    <t>AM1时01分</t>
+  </si>
+  <si>
     <t>上午1时01分01秒</t>
   </si>
   <si>
-    <t>一时〇一分</t>
-  </si>
-  <si>
-    <t>上午一时〇一分</t>
+    <t>AM1时01分01秒</t>
   </si>
   <si>
     <t>2020年1月1日 1:01:01</t>
@@ -140,29 +176,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="23">
-    <numFmt numFmtId="176" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="180" formatCode="m/d"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="yy/m/d"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy/m/d"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="179" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="183" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="184" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
-    <numFmt numFmtId="186" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="187" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="188" formatCode="mmmmm"/>
-    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="190" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="185" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="187" formatCode="m/d"/>
+    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="189" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="190" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="192" formatCode="mmmm\-yy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,12 +210,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -187,8 +268,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,52 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -256,16 +322,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,42 +346,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,8 +558,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -546,35 +584,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +596,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,17 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -789,100 +825,100 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,7 +990,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1233,314 +1269,444 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="2" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43831.0423726852</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>1.1111</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>43831.0423726852</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
         <v>1.1111</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>43831.0423726852</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
         <v>1.1111</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="7">
         <v>43831.0423726852</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8">
         <v>1.1111</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="9">
         <v>43831.0423726852</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10">
         <v>1.1111</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.1111</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11">
-        <v>43831.0423726852</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14">
         <v>1.1111</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13">
-        <v>43831.0423726852</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16">
         <v>1.1111</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="15">
-        <v>43831.0423726852</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1.1111</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="17">
         <v>43831.0423726852</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="18">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="18">
         <v>1111.1111</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="19">
         <v>43831.0423726852</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="20">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20">
         <v>1111.1111</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="21">
         <v>43831.0423726852</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1111.1111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="22">
-        <v>1111.1111</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="23">
-        <v>43831.0423726852</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="24">
         <v>43831.0423726852</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
         <v>43831.0423726852</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="26">
         <v>43831.0423726852</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="27">
         <v>43831.0423726852</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="28">
         <v>43831.0423726852</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="29">
         <v>43831.0423726852</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="30">
         <v>43831.0423726852</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="31">
         <v>43831.0423726852</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="32">
         <v>43831.0423726852</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="33">
         <v>43831.0423726852</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="34">
         <v>43831.0423726852</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="35">
         <v>43831.0423726852</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="36">
         <v>43831.0423726852</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="37">
         <v>43831.0423726852</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="38">
         <v>43831.0423726852</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:1">

--- a/src/test/resources/dataformat/dataformat.xlsx
+++ b/src/test/resources/dataformat/dataformat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>numberStringUs</t>
   </si>
   <si>
-    <t>2020/1/1 1:01</t>
+    <t>2020-1-1 1:01</t>
   </si>
   <si>
     <t>1.1111</t>
@@ -120,16 +120,16 @@
     <t>1-Jan-20</t>
   </si>
   <si>
-    <t>一月-20</t>
-  </si>
-  <si>
-    <t>January-20</t>
-  </si>
-  <si>
-    <t>一-20</t>
-  </si>
-  <si>
-    <t>J-20</t>
+    <t>一月/20</t>
+  </si>
+  <si>
+    <t>January/20</t>
+  </si>
+  <si>
+    <t>一/20</t>
+  </si>
+  <si>
+    <t>J/20</t>
   </si>
   <si>
     <t>一</t>
@@ -176,29 +176,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="23">
+    <numFmt numFmtId="176" formatCode="mmmm/yy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yy/m/d"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy/m/d"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="179" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="182" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="183" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="189" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="190" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="191" formatCode="mmmmm"/>
-    <numFmt numFmtId="192" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="183" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="185" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
+    <numFmt numFmtId="187" formatCode="mmmmm"/>
+    <numFmt numFmtId="188" formatCode="mmmmm/yy"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="190" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
+    <numFmt numFmtId="191" formatCode="m/d"/>
+    <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -210,6 +210,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -217,7 +224,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,16 +315,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +340,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,91 +352,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -362,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,28 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +598,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,17 +643,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,145 +661,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -825,100 +825,100 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/src/test/resources/dataformat/dataformat.xlsx
+++ b/src/test/resources/dataformat/dataformat.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/tmp/easyexcel/src/test/resources/dataformat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF4FF69-08AE-6F40-9C0D-C101B65BAF42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>date</t>
   </si>
@@ -169,38 +175,37 @@
   </si>
   <si>
     <t>2020年1月1日 1:01:01</t>
+  </si>
+  <si>
+    <t>0.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="18">
     <numFmt numFmtId="176" formatCode="mmmm/yy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yy/m/d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="183" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="185" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
-    <numFmt numFmtId="187" formatCode="mmmmm"/>
-    <numFmt numFmtId="188" formatCode="mmmmm/yy"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="190" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
-    <numFmt numFmtId="191" formatCode="m/d"/>
-    <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="180" formatCode="yy/m/d"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="184" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="190" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
+    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="192" formatCode="mmmmm/yy"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="194" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
+    <numFmt numFmtId="195" formatCode="m/d"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,344 +215,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -555,255 +245,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,82 +270,82 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -912,71 +360,33 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1263,24 +673,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375"/>
-    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1306,7 +716,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1326,7 +736,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1346,7 +756,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1366,7 +776,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1386,7 +796,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -1406,7 +816,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -1426,7 +836,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1446,7 +856,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1466,7 +876,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -1475,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="18">
-        <v>1111.1111</v>
+        <v>1111.1111000000001</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -1486,7 +896,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -1495,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="20">
-        <v>1111.1111</v>
+        <v>1111.1111000000001</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1506,7 +916,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
@@ -1515,7 +925,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="22">
-        <v>1111.1111</v>
+        <v>1111.1111000000001</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -1526,7 +936,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="23">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -1544,9 +954,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="24">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -1554,10 +964,19 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="40">
+        <v>0.105</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="25">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -1566,9 +985,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="26">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
@@ -1579,7 +998,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -1590,7 +1009,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="28">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>36</v>
@@ -1601,7 +1020,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="29">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
@@ -1612,7 +1031,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="30">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
@@ -1623,7 +1042,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="31">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
@@ -1634,7 +1053,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="32">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
@@ -1645,7 +1064,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="33">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
@@ -1656,7 +1075,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="34">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -1667,7 +1086,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="35">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
@@ -1678,7 +1097,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="36">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
@@ -1689,7 +1108,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="37">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
@@ -1700,7 +1119,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="38">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -1709,46 +1128,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" s="38"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/dataformat/dataformat.xlsx
+++ b/src/test/resources/dataformat/dataformat.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/tmp/easyexcel/src/test/resources/dataformat/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF4FF69-08AE-6F40-9C0D-C101B65BAF42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -175,37 +169,38 @@
   </si>
   <si>
     <t>2020年1月1日 1:01:01</t>
-  </si>
-  <si>
-    <t>0.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="23">
     <numFmt numFmtId="176" formatCode="mmmm/yy"/>
-    <numFmt numFmtId="180" formatCode="yy/m/d"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="184" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="190" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
-    <numFmt numFmtId="191" formatCode="mmmmm"/>
-    <numFmt numFmtId="192" formatCode="mmmmm/yy"/>
-    <numFmt numFmtId="193" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="194" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
-    <numFmt numFmtId="195" formatCode="m/d"/>
-    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="197" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yy/m/d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="183" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="185" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
+    <numFmt numFmtId="187" formatCode="mmmmm"/>
+    <numFmt numFmtId="188" formatCode="mmmmm/yy"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="190" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
+    <numFmt numFmtId="191" formatCode="m/d"/>
+    <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,29 +210,344 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -245,13 +555,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,123 +822,161 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -673,24 +1263,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -716,7 +1306,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -736,7 +1326,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -756,7 +1346,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -776,7 +1366,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -796,7 +1386,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -816,7 +1406,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -836,7 +1426,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -856,7 +1446,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -876,7 +1466,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -885,7 +1475,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="18">
-        <v>1111.1111000000001</v>
+        <v>1111.1111</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -896,7 +1486,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -905,7 +1495,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="20">
-        <v>1111.1111000000001</v>
+        <v>1111.1111</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -916,7 +1506,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
@@ -925,7 +1515,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="22">
-        <v>1111.1111000000001</v>
+        <v>1111.1111</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -936,7 +1526,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="23">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -954,9 +1544,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:3">
       <c r="A14" s="24">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -964,19 +1554,10 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="40">
-        <v>0.105</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="25">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -985,9 +1566,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:3">
       <c r="A16" s="26">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
@@ -998,7 +1579,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -1009,7 +1590,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="28">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>36</v>
@@ -1020,7 +1601,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="29">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
@@ -1031,7 +1612,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="30">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
@@ -1042,7 +1623,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="31">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
@@ -1053,7 +1634,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="32">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
@@ -1064,7 +1645,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="33">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
@@ -1075,7 +1656,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="34">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -1086,7 +1667,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="35">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
@@ -1097,7 +1678,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="36">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
@@ -1108,7 +1689,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="37">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
@@ -1119,7 +1700,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="38">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -1128,40 +1709,46 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:1">
       <c r="A29" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/dataformat/dataformat.xlsx
+++ b/src/test/resources/dataformat/dataformat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/tmp/easyexcel/src/test/resources/dataformat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95415B6-624F-2F44-8352-F2AFAE3F9929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -54,18 +60,12 @@
     <t>￥1.11</t>
   </si>
   <si>
-    <t>$1.11</t>
-  </si>
-  <si>
     <t>2020年1月1日</t>
   </si>
   <si>
     <t>￥1</t>
   </si>
   <si>
-    <t>$1</t>
-  </si>
-  <si>
     <t>2020年1月</t>
   </si>
   <si>
@@ -108,15 +108,9 @@
     <t>01/01/20</t>
   </si>
   <si>
-    <t>1-一月</t>
-  </si>
-  <si>
     <t>1-Jan</t>
   </si>
   <si>
-    <t>1-一月-20</t>
-  </si>
-  <si>
     <t>1-Jan-20</t>
   </si>
   <si>
@@ -126,15 +120,9 @@
     <t>January/20</t>
   </si>
   <si>
-    <t>一/20</t>
-  </si>
-  <si>
     <t>J/20</t>
   </si>
   <si>
-    <t>一</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -169,29 +157,43 @@
   </si>
   <si>
     <t>2020年1月1日 1:01:01</t>
+  </si>
+  <si>
+    <t>1-1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1月-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="18">
     <numFmt numFmtId="176" formatCode="mmmm/yy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yy/m/d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="179" formatCode="\¥#,##0;\¥\-#,##0"/>
     <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="183" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="185" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="185" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
     <numFmt numFmtId="187" formatCode="mmmmm"/>
     <numFmt numFmtId="188" formatCode="mmmmm/yy"/>
@@ -199,8 +201,9 @@
     <numFmt numFmtId="190" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
     <numFmt numFmtId="191" formatCode="m/d"/>
     <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,344 +213,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -555,255 +243,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,22 +268,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -894,10 +340,10 @@
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -921,62 +367,24 @@
     <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1263,24 +671,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375"/>
-    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1306,7 +714,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1326,7 +734,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1346,7 +754,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1361,394 +769,397 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8">
         <v>1.1111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="10">
         <v>1.1111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="12">
         <v>1.1111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="14">
         <v>1.1111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="16">
         <v>1.1111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="18">
-        <v>1111.1111</v>
+        <v>1111.1111000000001</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1111.1111000000001</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="20">
-        <v>1111.1111</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="22">
-        <v>1111.1111</v>
+        <v>1111.1111000000001</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="23">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="24">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.105</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="25">
+        <v>43831.042372685202</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="26">
+        <v>43831.042372685202</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="25">
-        <v>43831.0423726852</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="26">
-        <v>43831.0423726852</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="28">
-        <v>43831.0423726852</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>43831.042372685202</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="29">
-        <v>43831.0423726852</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>43831.042372685202</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="30">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="31">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="32">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="33">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="34">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="35">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="36">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="37">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="38">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="38"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/dataformat/dataformat.xlsx
+++ b/src/test/resources/dataformat/dataformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/tmp/easyexcel/src/test/resources/dataformat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95415B6-624F-2F44-8352-F2AFAE3F9929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4379D-B7BF-E144-B10C-6AF0E07B3A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,23 +159,23 @@
     <t>2020年1月1日 1:01:01</t>
   </si>
   <si>
-    <t>1-1月</t>
+    <t>0.11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1-1月-20</t>
+    <t>1-一月-20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1月/20</t>
+    <t>1-一月</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1月</t>
+    <t>一/20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.11</t>
+    <t>一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +680,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -966,10 +966,10 @@
         <v>0.105</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -977,7 +977,7 @@
         <v>43831.042372685202</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1010,7 +1010,7 @@
         <v>43831.042372685202</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1021,7 +1021,7 @@
         <v>43831.042372685202</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>

--- a/src/test/resources/dataformat/dataformat.xlsx
+++ b/src/test/resources/dataformat/dataformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/tmp/easyexcel/src/test/resources/dataformat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4379D-B7BF-E144-B10C-6AF0E07B3A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E316B3C4-A3FD-084B-81DF-FB975BF9B905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -177,6 +177,10 @@
   <si>
     <t>一</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -203,7 +207,7 @@
     <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,16 +230,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,13 +274,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,8 +422,12 @@
     <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,7 +733,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -972,7 +1025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="25">
         <v>43831.042372685202</v>
       </c>
@@ -981,6 +1034,15 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="D15" s="41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
